--- a/simulation/scenarios.xlsx
+++ b/simulation/scenarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ej45/Documents/dill:walrusCKMR/simulation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ej45/Documents/walrusCKMR/simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FAD022-403F-F04D-B164-81B9F21E188B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA37D81A-80C6-1343-9C12-D9D768F2A83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50500" yWindow="-10780" windowWidth="15940" windowHeight="12000" xr2:uid="{E7FF8656-E179-2341-868A-AC1C3D505F19}"/>
+    <workbookView xWindow="15340" yWindow="500" windowWidth="23060" windowHeight="19120" activeTab="2" xr2:uid="{E7FF8656-E179-2341-868A-AC1C3D505F19}"/>
   </bookViews>
   <sheets>
     <sheet name="demography" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Scenario</t>
   </si>
@@ -58,22 +58,37 @@
     <t>S3</t>
   </si>
   <si>
-    <t>Fec</t>
-  </si>
-  <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>RoI L1</t>
+  </si>
+  <si>
+    <t>RoI L2</t>
+  </si>
+  <si>
+    <t>Psi2</t>
+  </si>
+  <si>
+    <t>Psi3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -97,8 +112,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,15 +449,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4DDF907-AEC9-C042-9130-F30069439BA1}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,110 +465,113 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0.67</v>
+      </c>
+      <c r="F2">
+        <v>0.9</v>
+      </c>
+      <c r="G2">
+        <v>0.96220000000000006</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0.13</v>
-      </c>
-      <c r="D2">
-        <v>0.67</v>
-      </c>
-      <c r="E2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0.71</v>
+      </c>
+      <c r="F3">
         <v>0.9</v>
       </c>
-      <c r="F2">
-        <v>0.96220000000000006</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0.13</v>
-      </c>
-      <c r="D3">
-        <v>0.71</v>
-      </c>
-      <c r="E3">
-        <v>0.9</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.99</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>0.98</v>
       </c>
-      <c r="C4">
-        <v>0.10052</v>
-      </c>
-      <c r="D4">
-        <v>0.66020769999999995</v>
-      </c>
       <c r="E4">
-        <v>0.83094999999999997</v>
+        <v>0.67</v>
       </c>
       <c r="F4">
-        <v>0.98170049999999998</v>
+        <v>0.85</v>
       </c>
       <c r="G4">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="H4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>1.01</v>
       </c>
-      <c r="C5">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.7</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.95</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.99</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.6</v>
       </c>
     </row>
@@ -638,171 +657,218 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670BCB0E-2067-CC45-A8D9-AD5C6A958C6D}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
         <v>2023</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>2024</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>2025</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <v>2026</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="1">
         <v>2027</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="G1" s="1">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0.72</v>
-      </c>
-      <c r="C5">
-        <v>0.72</v>
-      </c>
-      <c r="D5">
-        <v>0.72</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0.72</v>
-      </c>
-      <c r="C6">
-        <v>0.72</v>
-      </c>
-      <c r="D6">
-        <v>0.72</v>
-      </c>
-      <c r="E6">
-        <v>0.72</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0.72</v>
-      </c>
-      <c r="C7">
-        <v>0.72</v>
-      </c>
-      <c r="D7">
-        <v>0.72</v>
-      </c>
-      <c r="E7">
-        <v>0.72</v>
-      </c>
-      <c r="F7">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
         <v>0</v>
       </c>
     </row>

--- a/simulation/scenarios.xlsx
+++ b/simulation/scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ej45/Documents/walrusCKMR/simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA37D81A-80C6-1343-9C12-D9D768F2A83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28635716-7FFB-E74C-A3CB-5C7E747D7209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15340" yWindow="500" windowWidth="23060" windowHeight="19120" activeTab="2" xr2:uid="{E7FF8656-E179-2341-868A-AC1C3D505F19}"/>
+    <workbookView xWindow="6340" yWindow="740" windowWidth="23060" windowHeight="18380" xr2:uid="{E7FF8656-E179-2341-868A-AC1C3D505F19}"/>
   </bookViews>
   <sheets>
     <sheet name="demography" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Scenario</t>
   </si>
@@ -61,16 +61,13 @@
     <t>NA</t>
   </si>
   <si>
-    <t>RoI L1</t>
-  </si>
-  <si>
-    <t>RoI L2</t>
-  </si>
-  <si>
     <t>Psi2</t>
   </si>
   <si>
     <t>Psi3</t>
+  </si>
+  <si>
+    <t>RoI</t>
   </si>
 </sst>
 </file>
@@ -449,15 +446,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4DDF907-AEC9-C042-9130-F30069439BA1}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,10 +462,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -483,18 +480,21 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
       </c>
       <c r="E2">
         <v>0.67</v>
@@ -508,8 +508,11 @@
       <c r="H2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -523,7 +526,7 @@
         <v>0.5</v>
       </c>
       <c r="E3">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="F3">
         <v>0.9</v>
@@ -534,16 +537,25 @@
       <c r="H3">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>0.98</v>
       </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
       <c r="E4">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="F4">
         <v>0.85</v>
@@ -554,25 +566,37 @@
       <c r="H4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>1.01</v>
       </c>
+      <c r="C5">
+        <v>0.1</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
       <c r="E5">
         <v>0.7</v>
       </c>
       <c r="F5">
-        <v>0.95</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="G5">
         <v>0.99</v>
       </c>
       <c r="H5">
         <v>0.6</v>
+      </c>
+      <c r="I5">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -659,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670BCB0E-2067-CC45-A8D9-AD5C6A958C6D}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/simulation/scenarios.xlsx
+++ b/simulation/scenarios.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ej45/Documents/walrusCKMR/simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28635716-7FFB-E74C-A3CB-5C7E747D7209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E616542-B116-C049-9E20-D26CED92EAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6340" yWindow="740" windowWidth="23060" windowHeight="18380" xr2:uid="{E7FF8656-E179-2341-868A-AC1C3D505F19}"/>
+    <workbookView xWindow="4520" yWindow="500" windowWidth="23060" windowHeight="18380" activeTab="2" xr2:uid="{E7FF8656-E179-2341-868A-AC1C3D505F19}"/>
   </bookViews>
   <sheets>
     <sheet name="demography" sheetId="2" r:id="rId1"/>
     <sheet name="lethality" sheetId="3" r:id="rId2"/>
     <sheet name="sampling" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Scenario</t>
   </si>
@@ -68,6 +68,48 @@
   </si>
   <si>
     <t>RoI</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Stable</t>
+  </si>
+  <si>
+    <t>Decreasing</t>
+  </si>
+  <si>
+    <t>Increasing</t>
+  </si>
+  <si>
+    <t>Reality + 100% effort 2025-2026</t>
+  </si>
+  <si>
+    <t>Reality + 100% effort 2025-2027</t>
+  </si>
+  <si>
+    <t>Reality + 100% effort 2025-2028</t>
+  </si>
+  <si>
+    <t>Reality + 75% effort 2025-2026</t>
+  </si>
+  <si>
+    <t>100% effort 2023-2028</t>
+  </si>
+  <si>
+    <t>100% effort 2023-2025</t>
+  </si>
+  <si>
+    <t>Reality + 75% effort through 2028</t>
+  </si>
+  <si>
+    <t>Reality + 75% effort through 2027</t>
+  </si>
+  <si>
+    <t>Total Effort</t>
   </si>
 </sst>
 </file>
@@ -446,15 +488,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4DDF907-AEC9-C042-9130-F30069439BA1}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,8 +524,11 @@
       <c r="I1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -497,7 +542,7 @@
         <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="F2">
         <v>0.9</v>
@@ -511,8 +556,11 @@
       <c r="I2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -540,8 +588,11 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -569,8 +620,11 @@
       <c r="I4">
         <v>-0.02</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -597,6 +651,9 @@
       </c>
       <c r="I5">
         <v>0.01</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -681,15 +738,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670BCB0E-2067-CC45-A8D9-AD5C6A958C6D}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="27.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,8 +771,14 @@
       <c r="G1" s="1">
         <v>2028</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -734,8 +800,15 @@
       <c r="G2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <f>SUM(B2:G2)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -757,8 +830,15 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I9" si="0">SUM(B3:G3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -780,8 +860,15 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -803,8 +890,15 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -826,8 +920,15 @@
       <c r="G6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -849,8 +950,15 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -872,8 +980,15 @@
       <c r="G8" s="1">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -894,6 +1009,13 @@
       </c>
       <c r="G9" s="1">
         <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/simulation/scenarios.xlsx
+++ b/simulation/scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ej45/Documents/walrusCKMR/simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E616542-B116-C049-9E20-D26CED92EAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC80C1DE-276B-A044-B8F7-A8A5BD1E5AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4520" yWindow="500" windowWidth="23060" windowHeight="18380" activeTab="2" xr2:uid="{E7FF8656-E179-2341-868A-AC1C3D505F19}"/>
+    <workbookView xWindow="1860" yWindow="740" windowWidth="23060" windowHeight="18380" activeTab="2" xr2:uid="{E7FF8656-E179-2341-868A-AC1C3D505F19}"/>
   </bookViews>
   <sheets>
     <sheet name="demography" sheetId="2" r:id="rId1"/>
@@ -741,7 +741,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/simulation/scenarios.xlsx
+++ b/simulation/scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ej45/Documents/walrusCKMR/simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC80C1DE-276B-A044-B8F7-A8A5BD1E5AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF1DDFB-758D-A84C-8DF6-E97824A667B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="740" windowWidth="23060" windowHeight="18380" activeTab="2" xr2:uid="{E7FF8656-E179-2341-868A-AC1C3D505F19}"/>
+    <workbookView xWindow="13160" yWindow="1820" windowWidth="23060" windowHeight="18380" activeTab="1" xr2:uid="{E7FF8656-E179-2341-868A-AC1C3D505F19}"/>
   </bookViews>
   <sheets>
     <sheet name="demography" sheetId="2" r:id="rId1"/>
@@ -663,10 +663,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2012C410-7FD4-B243-87D1-CDE037FAAD59}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -729,6 +729,26 @@
       </c>
       <c r="F3">
         <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <v>1000</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -740,7 +760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670BCB0E-2067-CC45-A8D9-AD5C6A958C6D}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>

--- a/simulation/scenarios.xlsx
+++ b/simulation/scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ej45/Documents/walrusCKMR/simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF1DDFB-758D-A84C-8DF6-E97824A667B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC32EAC0-A969-9147-90AB-BAEC865D3D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13160" yWindow="1820" windowWidth="23060" windowHeight="18380" activeTab="1" xr2:uid="{E7FF8656-E179-2341-868A-AC1C3D505F19}"/>
+    <workbookView xWindow="13160" yWindow="1820" windowWidth="23060" windowHeight="18380" activeTab="2" xr2:uid="{E7FF8656-E179-2341-868A-AC1C3D505F19}"/>
   </bookViews>
   <sheets>
     <sheet name="demography" sheetId="2" r:id="rId1"/>
@@ -97,9 +97,6 @@
     <t>Reality + 75% effort 2025-2026</t>
   </si>
   <si>
-    <t>100% effort 2023-2028</t>
-  </si>
-  <si>
     <t>100% effort 2023-2025</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>Total Effort</t>
+  </si>
+  <si>
+    <t>100% effort 2023-2027</t>
   </si>
 </sst>
 </file>
@@ -665,7 +665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2012C410-7FD4-B243-87D1-CDE037FAAD59}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670BCB0E-2067-CC45-A8D9-AD5C6A958C6D}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -795,7 +795,7 @@
         <v>10</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -818,14 +818,14 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I2">
         <f>SUM(B2:G2)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
@@ -1001,7 +1001,7 @@
         <v>0.75</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>

--- a/simulation/scenarios.xlsx
+++ b/simulation/scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ej45/Documents/walrusCKMR/simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC32EAC0-A969-9147-90AB-BAEC865D3D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FE4A36-8D6A-864F-9B50-9418729F04AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13160" yWindow="1820" windowWidth="23060" windowHeight="18380" activeTab="2" xr2:uid="{E7FF8656-E179-2341-868A-AC1C3D505F19}"/>
+    <workbookView xWindow="6340" yWindow="740" windowWidth="23060" windowHeight="18380" activeTab="1" xr2:uid="{E7FF8656-E179-2341-868A-AC1C3D505F19}"/>
   </bookViews>
   <sheets>
     <sheet name="demography" sheetId="2" r:id="rId1"/>
@@ -491,7 +491,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="A5" sqref="A5:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -663,9 +663,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2012C410-7FD4-B243-87D1-CDE037FAAD59}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -736,18 +736,38 @@
         <v>3</v>
       </c>
       <c r="B4">
+        <v>500</v>
+      </c>
+      <c r="C4">
+        <v>500</v>
+      </c>
+      <c r="D4">
+        <v>500</v>
+      </c>
+      <c r="E4">
+        <v>500</v>
+      </c>
+      <c r="F4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>1000</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>1000</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>1000</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>1000</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>1000</v>
       </c>
     </row>
@@ -760,7 +780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670BCB0E-2067-CC45-A8D9-AD5C6A958C6D}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>

--- a/simulation/scenarios.xlsx
+++ b/simulation/scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ej45/Documents/walrusCKMR/simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FE4A36-8D6A-864F-9B50-9418729F04AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C211408-8D59-8946-AD6E-44550A02D3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6340" yWindow="740" windowWidth="23060" windowHeight="18380" activeTab="1" xr2:uid="{E7FF8656-E179-2341-868A-AC1C3D505F19}"/>
+    <workbookView xWindow="5480" yWindow="740" windowWidth="23060" windowHeight="18380" activeTab="2" xr2:uid="{E7FF8656-E179-2341-868A-AC1C3D505F19}"/>
   </bookViews>
   <sheets>
     <sheet name="demography" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Scenario</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>100% effort 2023-2027</t>
+  </si>
+  <si>
+    <t>Reality + 100% effort 2025</t>
+  </si>
+  <si>
+    <t>Reality  + 75% effort 2025</t>
   </si>
 </sst>
 </file>
@@ -491,7 +497,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,7 +571,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="C3">
         <v>0.1</v>
@@ -574,22 +580,22 @@
         <v>0.5</v>
       </c>
       <c r="E3">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="F3">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="G3">
-        <v>0.99</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="H3">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -597,7 +603,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0.1</v>
@@ -606,22 +612,22 @@
         <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0.66</v>
+        <v>0.7</v>
       </c>
       <c r="F4">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G4">
-        <v>0.98499999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="H4">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I4">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -665,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2012C410-7FD4-B243-87D1-CDE037FAAD59}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -778,10 +784,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670BCB0E-2067-CC45-A8D9-AD5C6A958C6D}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -862,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -871,11 +877,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I9" si="0">SUM(B3:G3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -895,17 +900,17 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" ref="I4:I11" si="0">SUM(B4:G4)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -928,14 +933,14 @@
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -949,23 +954,23 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -982,20 +987,19 @@
         <v>0.75</v>
       </c>
       <c r="E7" s="1">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1015,17 +1019,17 @@
         <v>0.75</v>
       </c>
       <c r="F8" s="1">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1036,27 +1040,90 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
       <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9">
+        <f>SUM(B9:G9)</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
         <v>19</v>
       </c>
-      <c r="I9">
+      <c r="I11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
